--- a/resultados/Experimento 7 Q-5.xlsx
+++ b/resultados/Experimento 7 Q-5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Documents\GitHub\CMSTP-TW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCF64F5-8B32-4698-845A-0BFAC71BA80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7008B12-E4C6-4ABE-91DA-04806825219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,6 +231,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,9 +582,9 @@
       <selection activeCell="D57" sqref="D2:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -605,13 +606,13 @@
         <v>867.08020514604505</v>
       </c>
       <c r="C2">
-        <v>891.72109376745379</v>
+        <v>888.45268219342836</v>
       </c>
       <c r="D2">
-        <v>18.53247169195674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.573780023306611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -619,13 +620,13 @@
         <v>842.61996930666749</v>
       </c>
       <c r="C3">
-        <v>867.72848395294022</v>
+        <v>865.51121298135274</v>
       </c>
       <c r="D3">
-        <v>18.64496407452971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.639568801410501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -636,10 +637,10 @@
         <v>826.99146650277692</v>
       </c>
       <c r="D4">
-        <v>18.689317754516381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.5113987699151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -647,13 +648,13 @@
         <v>807.40874919283715</v>
       </c>
       <c r="C5">
-        <v>815.95800837543663</v>
+        <v>815.57037380316638</v>
       </c>
       <c r="D5">
-        <v>18.41753790727817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.476486419886349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -661,27 +662,27 @@
         <v>842.4721313065761</v>
       </c>
       <c r="C6">
-        <v>862.29535150597769</v>
+        <v>859.13528632942268</v>
       </c>
       <c r="D6">
-        <v>18.66090563898906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.71551014315337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>852.13341550039138</v>
+        <v>849.57137649711433</v>
       </c>
       <c r="C7">
-        <v>858.1826107181663</v>
+        <v>857.84663560256809</v>
       </c>
       <c r="D7">
-        <v>18.25180064411834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.222033470682799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -692,10 +693,10 @@
         <v>872.59779345261393</v>
       </c>
       <c r="D8">
-        <v>18.557357961731029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.45476276483387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -706,10 +707,10 @@
         <v>846.58664663977856</v>
       </c>
       <c r="D9">
-        <v>18.191229598782961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.180875742249189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -717,13 +718,13 @@
         <v>801.39265482503026</v>
       </c>
       <c r="C10">
-        <v>835.73675206129406</v>
+        <v>837.78254853082342</v>
       </c>
       <c r="D10">
-        <v>18.242750977631658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.209086762554939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -731,27 +732,27 @@
         <v>997.16745784088312</v>
       </c>
       <c r="C11">
-        <v>1023.5228210482099</v>
+        <v>1024.2288499959859</v>
       </c>
       <c r="D11">
-        <v>19.380551045527682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.187931169569492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
-        <v>967.62016043945277</v>
+        <v>969.91407274051733</v>
       </c>
       <c r="C12">
-        <v>983.13614813590721</v>
+        <v>989.6112340259491</v>
       </c>
       <c r="D12">
-        <v>18.332264312775809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.065172886475921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -759,27 +760,27 @@
         <v>936.94867436153231</v>
       </c>
       <c r="C13">
-        <v>948.51934054673347</v>
+        <v>947.27879390450653</v>
       </c>
       <c r="D13">
-        <v>18.217608683696021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.02864814531058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
       <c r="B14">
-        <v>908.65845062260826</v>
+        <v>915.59670458254129</v>
       </c>
       <c r="C14">
-        <v>933.61671271566343</v>
+        <v>940.69653555914522</v>
       </c>
       <c r="D14">
-        <v>18.555672174552459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.207823851890861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -787,55 +788,55 @@
         <v>929.47645799739098</v>
       </c>
       <c r="C15">
-        <v>940.14554026701376</v>
+        <v>940.85557366313299</v>
       </c>
       <c r="D15">
-        <v>18.630059808958318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.685416251793509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>916.42998042168006</v>
+        <v>913.45632426612872</v>
       </c>
       <c r="C16">
-        <v>930.25696995259659</v>
+        <v>932.72749862819546</v>
       </c>
       <c r="D16">
-        <v>18.167474315268919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.20311215911061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>918.44193313801577</v>
+        <v>918.55603209790979</v>
       </c>
       <c r="C17">
-        <v>948.75616535686254</v>
+        <v>938.47193215085861</v>
       </c>
       <c r="D17">
-        <v>18.11179871610366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.37913568802178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18">
-        <v>911.06345159229181</v>
+        <v>910.52826663565509</v>
       </c>
       <c r="C18">
-        <v>916.80121615979238</v>
+        <v>921.51253751430227</v>
       </c>
       <c r="D18">
-        <v>18.124260277301069</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.83623352460563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -843,27 +844,27 @@
         <v>1023.9209942488141</v>
       </c>
       <c r="C19">
-        <v>1038.3023801838319</v>
+        <v>1036.378070451171</v>
       </c>
       <c r="D19">
-        <v>19.62512841080315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.535416088439529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
-        <v>970.02956914524725</v>
+        <v>971.88186879253749</v>
       </c>
       <c r="C20">
-        <v>983.01376622833448</v>
+        <v>988.18126969247783</v>
       </c>
       <c r="D20">
-        <v>20.105380848422651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.696453277580439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -871,13 +872,13 @@
         <v>901.40717014558845</v>
       </c>
       <c r="C21">
-        <v>913.58219562169359</v>
+        <v>913.51891669835277</v>
       </c>
       <c r="D21">
-        <v>19.234451354807241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.007889510691161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -888,10 +889,10 @@
         <v>921.92997922524808</v>
       </c>
       <c r="D22">
-        <v>17.060238136025141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.198104974254971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -902,24 +903,24 @@
         <v>1000.64918807992</v>
       </c>
       <c r="D23">
-        <v>19.842843186063689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.688959719985721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24">
-        <v>964.77928363794285</v>
+        <v>942.01705046261225</v>
       </c>
       <c r="C24">
-        <v>971.63067685160638</v>
+        <v>968.75484656762546</v>
       </c>
       <c r="D24">
-        <v>19.723466148227448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.487415765039621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -927,13 +928,13 @@
         <v>904.01492599079313</v>
       </c>
       <c r="C25">
-        <v>932.85376644167695</v>
+        <v>932.25580509791087</v>
       </c>
       <c r="D25">
-        <v>19.749536809185521</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.47088029198348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -944,10 +945,10 @@
         <v>894.12295563098962</v>
       </c>
       <c r="D26">
-        <v>17.837673522066321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.83507241178304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -958,10 +959,10 @@
         <v>939.40040349877927</v>
       </c>
       <c r="D27">
-        <v>18.239690451417118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.154898630082609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -972,10 +973,10 @@
         <v>915.53997789290884</v>
       </c>
       <c r="D28">
-        <v>17.787857949174938</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.817977225035429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -986,10 +987,10 @@
         <v>925.82579180754351</v>
       </c>
       <c r="D29">
-        <v>19.110043239360671</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.799991878680881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1000,10 +1001,10 @@
         <v>896.09426215946837</v>
       </c>
       <c r="D30">
-        <v>17.444856959488241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.48680758997798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1011,27 +1012,27 @@
         <v>975.98512134663918</v>
       </c>
       <c r="C31">
-        <v>1005.219211365503</v>
+        <v>1007.509369919308</v>
       </c>
       <c r="D31">
-        <v>19.453950137365609</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.24401760734618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32">
-        <v>975.20406670598288</v>
+        <v>985.20003716736858</v>
       </c>
       <c r="C32">
-        <v>1004.05022124045</v>
+        <v>1007.946676614763</v>
       </c>
       <c r="D32">
-        <v>19.194255310203879</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.012210880219939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1039,13 +1040,13 @@
         <v>905.30947341756678</v>
       </c>
       <c r="C33">
-        <v>918.82499148430247</v>
+        <v>919.88272452556737</v>
       </c>
       <c r="D33">
-        <v>19.33607693095691</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.162331481464211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1056,10 +1057,10 @@
         <v>900.53165687417766</v>
       </c>
       <c r="D34">
-        <v>17.7187593920622</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.6950453126803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1070,10 +1071,10 @@
         <v>990.62633695960506</v>
       </c>
       <c r="D35">
-        <v>18.329403205215929</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.34135316405445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1081,27 +1082,27 @@
         <v>927.31224922977151</v>
       </c>
       <c r="C36">
-        <v>948.72919228907813</v>
+        <v>948.65300124207226</v>
       </c>
       <c r="D36">
-        <v>20.014237358653919</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.78369328305125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
       <c r="B37">
-        <v>892.44886759108226</v>
+        <v>893.11667810007657</v>
       </c>
       <c r="C37">
-        <v>918.79930464394818</v>
+        <v>918.86608569484747</v>
       </c>
       <c r="D37">
-        <v>18.836454503703859</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.709090785868469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1112,10 +1113,10 @@
         <v>892.28940912914857</v>
       </c>
       <c r="D38">
-        <v>17.309195525245741</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.34007086288184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1126,24 +1127,24 @@
         <v>913.93659728560056</v>
       </c>
       <c r="D39">
-        <v>18.142231663875279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.162228434160351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40">
-        <v>923.23401294719702</v>
+        <v>927.31380334368055</v>
       </c>
       <c r="C40">
-        <v>939.20935500435303</v>
+        <v>941.45305022278228</v>
       </c>
       <c r="D40">
-        <v>19.283299426222221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.90563448313624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1154,24 +1155,24 @@
         <v>893.11372546878681</v>
       </c>
       <c r="D41">
-        <v>17.545831922162321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.630449960567059</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1103.492746249894</v>
+        <v>1107.529160816069</v>
       </c>
       <c r="C42">
-        <v>1129.9409334254419</v>
+        <v>1133.611360814823</v>
       </c>
       <c r="D42">
-        <v>18.898404948785899</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.88055265937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1182,10 +1183,10 @@
         <v>1067.886516301046</v>
       </c>
       <c r="D43">
-        <v>19.28434049542993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.108985232375559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1196,24 +1197,24 @@
         <v>1041.85633778642</v>
       </c>
       <c r="D44">
-        <v>19.478418659372259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.259877445548771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
       <c r="B45">
-        <v>998.56082210103523</v>
+        <v>998.48395648120345</v>
       </c>
       <c r="C45">
-        <v>1030.63936530722</v>
+        <v>1030.637716384748</v>
       </c>
       <c r="D45">
-        <v>18.794437233638021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.581234671734268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1224,10 +1225,10 @@
         <v>1114.6184478891139</v>
       </c>
       <c r="D46">
-        <v>19.24284296552651</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.141615117341281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1238,10 +1239,10 @@
         <v>1049.077054050528</v>
       </c>
       <c r="D47">
-        <v>19.337759212823581</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.10085885878652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1252,10 +1253,10 @@
         <v>1050.869767233384</v>
       </c>
       <c r="D48">
-        <v>20.141395982028921</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.886563771963122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1263,27 +1264,27 @@
         <v>1033.321607519066</v>
       </c>
       <c r="C49">
-        <v>1060.000630318907</v>
+        <v>1059.5775013466609</v>
       </c>
       <c r="D49">
-        <v>18.469035753840579</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.368111621215942</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50">
-        <v>1087.639513885463</v>
+        <v>1092.0804050436629</v>
       </c>
       <c r="C50">
-        <v>1127.4496643431969</v>
+        <v>1128.9987197598341</v>
       </c>
       <c r="D50">
-        <v>18.98550001261756</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.89830659981817</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -1294,80 +1295,80 @@
         <v>1087.516472602292</v>
       </c>
       <c r="D51">
-        <v>19.372894852049651</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.07464398015291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
       <c r="B52">
-        <v>1012.696969008161</v>
+        <v>1026.488871707016</v>
       </c>
       <c r="C52">
-        <v>1040.3469748071971</v>
+        <v>1042.256061836935</v>
       </c>
       <c r="D52">
-        <v>19.196721567632629</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.04435956180096</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53">
-        <v>1000.458713898209</v>
+        <v>1014.826544737873</v>
       </c>
       <c r="C53">
-        <v>1025.128131078317</v>
+        <v>1029.849503550455</v>
       </c>
       <c r="D53">
-        <v>18.75745932324789</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.56619989294559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
       <c r="B54">
-        <v>1088.2231847176331</v>
+        <v>1052.8061270172111</v>
       </c>
       <c r="C54">
-        <v>1104.221255761184</v>
+        <v>1100.547395519648</v>
       </c>
       <c r="D54">
-        <v>19.59487111228518</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.35923937093467</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55">
-        <v>1072.3146538697899</v>
+        <v>1065.148239196061</v>
       </c>
       <c r="C55">
-        <v>1085.977768930748</v>
+        <v>1085.0765477166749</v>
       </c>
       <c r="D55">
-        <v>18.42764525976963</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.416027584299449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56">
-        <v>1087.193747904339</v>
+        <v>1060.406316230584</v>
       </c>
       <c r="C56">
-        <v>1107.1635336434031</v>
+        <v>1095.109345808195</v>
       </c>
       <c r="D56">
-        <v>19.49539472763427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.119051597826179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -1375,10 +1376,10 @@
         <v>1025.819350177761</v>
       </c>
       <c r="C57">
-        <v>1059.417784787438</v>
+        <v>1059.5946184164591</v>
       </c>
       <c r="D57">
-        <v>18.527206929214302</v>
+        <v>16.414580522291359</v>
       </c>
     </row>
   </sheetData>
